--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,23 +1004,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1144,23 +1144,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>372</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45847</v>
+        <v>45844</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1420,24 +1420,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D22" t="n">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1476,24 +1476,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1588,24 +1588,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,24 +1616,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,24 +1728,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>244</v>
       </c>
       <c r="D33" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1767,13 +1767,13 @@
         <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>244</v>
       </c>
       <c r="D36" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,24 +1840,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>244</v>
       </c>
       <c r="D37" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1924,11 +1924,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1952,11 +1952,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2036,27 +2036,27 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2064,27 +2064,27 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D45" t="n">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2131,13 +2131,13 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G47" t="n">
         <v>10</v>
@@ -2148,27 +2148,27 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D48" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2176,27 +2176,27 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E49" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2260,24 +2260,24 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E52" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2288,24 +2288,24 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E53" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F53" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2372,24 +2372,24 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>372</v>
+        <v>103</v>
       </c>
       <c r="D56" t="n">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F56" t="n">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2400,24 +2400,24 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>372</v>
+        <v>103</v>
       </c>
       <c r="D57" t="n">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F57" t="n">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2439,13 +2439,13 @@
         <v>372</v>
       </c>
       <c r="D58" t="n">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E58" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F58" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2467,13 +2467,13 @@
         <v>372</v>
       </c>
       <c r="D59" t="n">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E59" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F59" t="n">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2484,24 +2484,24 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="E60" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2512,24 +2512,24 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="E61" t="n">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2591,6 +2591,62 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>163</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>160</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>163</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>160</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -871,13 +871,13 @@
         <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -899,13 +899,13 @@
         <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1000,27 +1000,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,27 +1028,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="D8" t="n">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1067,13 +1067,13 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E10" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1151,13 +1151,13 @@
         <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -1168,18 +1168,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1252,18 +1252,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F17" t="n">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,24 +1308,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1392,24 +1392,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1424,20 +1424,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="E22" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1532,24 +1532,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1644,24 +1644,24 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1756,11 +1756,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1868,11 +1868,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1980,27 +1980,27 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
         <v>7</v>
       </c>
-      <c r="F42" t="n">
-        <v>27</v>
-      </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2092,27 +2092,27 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D46" t="n">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2204,24 +2204,24 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2316,24 +2316,24 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E54" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F54" t="n">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2428,24 +2428,24 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D58" t="n">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F58" t="n">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45844</v>
+        <v>45847</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2619,34 +2619,6 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>163</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>160</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -871,13 +871,13 @@
         <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45851</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -899,13 +899,13 @@
         <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45850</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1000,27 +1000,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,27 +1028,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45851</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45850</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1067,13 +1067,13 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="D11" t="n">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1140,27 +1140,27 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1168,18 +1168,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45851</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45850</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1252,18 +1252,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45851</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,24 +1308,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,24 +1392,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1420,24 +1420,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>244</v>
       </c>
       <c r="D22" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1476,24 +1476,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,24 +1532,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1588,24 +1588,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,24 +1616,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1644,24 +1644,24 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
         <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,24 +1728,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>244</v>
       </c>
       <c r="D33" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1756,11 +1756,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1784,7 +1784,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1795,13 +1795,13 @@
         <v>244</v>
       </c>
       <c r="D35" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>244</v>
       </c>
       <c r="D36" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,11 +1840,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1868,11 +1868,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1896,7 +1896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1924,11 +1924,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1952,11 +1952,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1980,27 +1980,27 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2036,27 +2036,27 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
         <v>7</v>
       </c>
-      <c r="F44" t="n">
-        <v>27</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2064,27 +2064,27 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2092,27 +2092,27 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2131,13 +2131,13 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
         <v>10</v>
@@ -2148,27 +2148,27 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2176,27 +2176,27 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2204,24 +2204,24 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E50" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2260,24 +2260,24 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="D52" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2288,24 +2288,24 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="D53" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2316,24 +2316,24 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>372</v>
+        <v>103</v>
       </c>
       <c r="D54" t="n">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F54" t="n">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2372,24 +2372,24 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E56" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2400,24 +2400,24 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E57" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2428,24 +2428,24 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="E58" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2467,13 +2467,13 @@
         <v>372</v>
       </c>
       <c r="D59" t="n">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="E59" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F59" t="n">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2484,24 +2484,24 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D60" t="n">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="F60" t="n">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2512,24 +2512,24 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45845</v>
+        <v>45851</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D61" t="n">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="F61" t="n">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45847</v>
+        <v>45850</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2591,34 +2591,6 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>163</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>160</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,27 +860,27 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -899,13 +899,13 @@
         <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1000,35 +1000,35 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>194</v>
+      </c>
+      <c r="E7" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
-        <v>21</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1039,13 +1039,13 @@
         <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
         <v>27</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1067,13 +1067,13 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>51</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1252,18 +1252,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,27 +1392,27 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1476,24 +1476,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1588,24 +1588,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,35 +1616,35 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D29" t="n">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
         <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,24 +1728,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="D33" t="n">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="F33" t="n">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1767,13 +1767,13 @@
         <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1795,13 +1795,13 @@
         <v>244</v>
       </c>
       <c r="D35" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>244</v>
       </c>
       <c r="D36" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,24 +1840,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D37" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F37" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1924,11 +1924,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2036,7 +2036,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45848</v>
+        <v>45851</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" t="n">
         <v>10</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45851</v>
+        <v>45850</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2075,13 +2075,13 @@
         <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
         <v>10</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45850</v>
+        <v>45849</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2120,27 +2120,27 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45849</v>
+        <v>45851</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D47" t="n">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45851</v>
+        <v>45849</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2204,24 +2204,24 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2232,24 +2232,24 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2292,20 +2292,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E53" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F53" t="n">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2320,20 +2320,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="E54" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F54" t="n">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2348,20 +2348,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E55" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2372,24 +2372,24 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45848</v>
+        <v>45851</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D56" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F56" t="n">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2400,24 +2400,24 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45851</v>
+        <v>45850</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D57" t="n">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="F57" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2428,169 +2428,29 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45850</v>
+        <v>45849</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D58" t="n">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="F58" t="n">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>372</v>
-      </c>
-      <c r="D59" t="n">
-        <v>99</v>
-      </c>
-      <c r="E59" t="n">
-        <v>99</v>
-      </c>
-      <c r="F59" t="n">
-        <v>174</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>163</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>160</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>163</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>160</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>163</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>160</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>163</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>160</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -871,13 +871,13 @@
         <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -888,27 +888,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1000,55 +1000,55 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>375</v>
+        <v>163</v>
       </c>
       <c r="D7" t="n">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="F7" t="n">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D8" t="n">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1067,13 +1067,13 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" t="n">
         <v>27</v>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -1252,27 +1252,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1476,30 +1476,30 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D24" t="n">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1588,30 +1588,30 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>244</v>
+        <v>375</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D32" t="n">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D36" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F36" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,24 +1840,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45852</v>
+        <v>45851</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E37" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45851</v>
+        <v>45850</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1896,11 +1896,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1924,11 +1924,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1956,23 +1956,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1984,23 +1984,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2008,24 +2008,24 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45849</v>
+        <v>45851</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D43" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F43" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2036,27 +2036,27 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45851</v>
+        <v>45850</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2064,27 +2064,27 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D45" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2092,27 +2092,27 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2124,20 +2124,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="D47" t="n">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="E47" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F47" t="n">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2152,20 +2152,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="D48" t="n">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="E48" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F48" t="n">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2176,24 +2176,24 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45849</v>
+        <v>45851</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="D49" t="n">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="F49" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2204,253 +2204,29 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45851</v>
+        <v>45850</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>103</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>70</v>
-      </c>
-      <c r="F51" t="n">
-        <v>30</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>103</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>70</v>
-      </c>
-      <c r="F52" t="n">
-        <v>30</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>372</v>
-      </c>
-      <c r="D53" t="n">
-        <v>145</v>
-      </c>
-      <c r="E53" t="n">
-        <v>78</v>
-      </c>
-      <c r="F53" t="n">
-        <v>149</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>372</v>
-      </c>
-      <c r="D54" t="n">
-        <v>174</v>
-      </c>
-      <c r="E54" t="n">
-        <v>50</v>
-      </c>
-      <c r="F54" t="n">
-        <v>148</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>372</v>
-      </c>
-      <c r="D55" t="n">
-        <v>99</v>
-      </c>
-      <c r="E55" t="n">
-        <v>99</v>
-      </c>
-      <c r="F55" t="n">
-        <v>174</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>163</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>160</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>163</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>160</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>163</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>160</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,27 +860,27 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -888,27 +888,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -916,27 +916,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1000,27 +1000,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>160</v>
-      </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,27 +1028,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,27 +1056,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D9" t="n">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="n">
         <v>27</v>
@@ -1140,21 +1140,21 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -1168,27 +1168,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1196,27 +1196,27 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45851</v>
+        <v>45853</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>51</v>
@@ -1252,27 +1252,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45851</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,27 +1308,27 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45851</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45851</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>287</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,52 +1392,52 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45851</v>
+        <v>45853</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D22" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1448,27 +1448,27 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D23" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1476,52 +1476,52 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45853</v>
+        <v>45851</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="E24" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="D25" t="n">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,52 +1532,52 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45851</v>
+        <v>45853</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D26" t="n">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D27" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1588,91 +1588,91 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45851</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>104</v>
+        <v>375</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="E29" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D30" t="n">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
         <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1784,24 +1784,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D35" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F35" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45852</v>
+        <v>45851</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1868,27 +1868,27 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1900,20 +1900,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D39" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1924,24 +1924,24 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="D40" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F40" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="D41" t="n">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1980,253 +1980,29 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="D42" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>287</v>
-      </c>
-      <c r="D43" t="n">
-        <v>219</v>
-      </c>
-      <c r="E43" t="n">
-        <v>39</v>
-      </c>
-      <c r="F43" t="n">
-        <v>29</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>287</v>
-      </c>
-      <c r="D44" t="n">
-        <v>219</v>
-      </c>
-      <c r="E44" t="n">
-        <v>39</v>
-      </c>
-      <c r="F44" t="n">
-        <v>29</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>103</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>70</v>
-      </c>
-      <c r="F45" t="n">
-        <v>30</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>103</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>70</v>
-      </c>
-      <c r="F46" t="n">
-        <v>30</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>372</v>
-      </c>
-      <c r="D47" t="n">
-        <v>145</v>
-      </c>
-      <c r="E47" t="n">
-        <v>78</v>
-      </c>
-      <c r="F47" t="n">
-        <v>149</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>372</v>
-      </c>
-      <c r="D48" t="n">
-        <v>174</v>
-      </c>
-      <c r="E48" t="n">
-        <v>50</v>
-      </c>
-      <c r="F48" t="n">
-        <v>148</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>163</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>160</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>163</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>160</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,27 +860,27 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -888,27 +888,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -916,27 +916,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -944,27 +944,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1011,13 +1011,13 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -1028,27 +1028,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,27 +1056,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1084,27 +1084,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
         <v>27</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1168,27 +1168,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1196,27 +1196,27 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1224,27 +1224,27 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>51</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>287</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,27 +1308,27 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1336,27 +1336,27 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1392,83 +1392,83 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="D22" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1476,27 +1476,27 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="E25" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,80 +1532,80 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="D27" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,108 +1616,108 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="E29" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>104</v>
+        <v>375</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="E30" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D31" t="n">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E32" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,24 +1728,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D33" t="n">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="F33" t="n">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1756,24 +1756,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="D34" t="n">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="F34" t="n">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1784,24 +1784,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E35" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D36" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F36" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45851</v>
+        <v>45855</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45851</v>
+        <v>45855</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1879,13 +1879,13 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
         <v>10</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45851</v>
+        <v>45855</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45851</v>
+        <v>45855</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
@@ -1947,62 +1947,34 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45851</v>
+        <v>45855</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D41" t="n">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="F41" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>163</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>160</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -481,31 +481,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>308</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -798,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +786,7 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -860,7 +835,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -888,7 +863,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -916,27 +891,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45854</v>
+        <v>45857</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -944,27 +919,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -972,7 +947,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -983,13 +958,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" t="n">
         <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1000,27 +975,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,7 +1003,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1039,13 +1014,13 @@
         <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>27</v>
@@ -1056,27 +1031,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45854</v>
+        <v>45857</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1084,7 +1059,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1112,7 +1087,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1123,13 +1098,13 @@
         <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n">
         <v>27</v>
@@ -1140,27 +1115,27 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>160</v>
-      </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1168,7 +1143,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1196,27 +1171,27 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45857</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1224,7 +1199,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1252,7 +1227,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1263,13 +1238,13 @@
         <v>152</v>
       </c>
       <c r="D16" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>51</v>
@@ -1280,21 +1255,21 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -1308,24 +1283,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>287</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1336,27 +1311,27 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45853</v>
+        <v>45857</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1364,24 +1339,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1396,20 +1371,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1420,52 +1395,52 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45853</v>
+        <v>45857</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="D23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E23" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1476,27 +1451,27 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1508,20 +1483,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,24 +1507,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="E26" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1560,52 +1535,52 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45853</v>
+        <v>45857</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="E27" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1620,20 +1595,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1644,63 +1619,63 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45853</v>
+        <v>45858</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="E30" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45857</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="E31" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1711,13 +1686,13 @@
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,24 +1703,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="E33" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1756,24 +1731,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45852</v>
+        <v>45858</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="E34" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1784,11 +1759,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45855</v>
+        <v>45857</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1812,24 +1787,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1844,7 +1819,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1868,27 +1843,27 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D38" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1896,24 +1871,24 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45855</v>
+        <v>45857</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E39" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1924,30 +1899,30 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="E40" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1956,25 +1931,557 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>244</v>
+      </c>
+      <c r="D41" t="n">
+        <v>210</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>27</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>244</v>
+      </c>
+      <c r="D42" t="n">
+        <v>210</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>27</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>244</v>
+      </c>
+      <c r="D43" t="n">
+        <v>210</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>27</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>37</v>
+      </c>
+      <c r="D44" t="n">
+        <v>21</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>244</v>
+      </c>
+      <c r="D45" t="n">
+        <v>210</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>37</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>37</v>
+      </c>
+      <c r="D47" t="n">
+        <v>22</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>287</v>
+      </c>
+      <c r="D48" t="n">
+        <v>219</v>
+      </c>
+      <c r="E48" t="n">
+        <v>39</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>37</v>
+      </c>
+      <c r="D49" t="n">
+        <v>22</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>287</v>
+      </c>
+      <c r="D50" t="n">
+        <v>219</v>
+      </c>
+      <c r="E50" t="n">
+        <v>39</v>
+      </c>
+      <c r="F50" t="n">
+        <v>29</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>287</v>
+      </c>
+      <c r="D51" t="n">
+        <v>219</v>
+      </c>
+      <c r="E51" t="n">
+        <v>39</v>
+      </c>
+      <c r="F51" t="n">
+        <v>29</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>104</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>70</v>
+      </c>
+      <c r="F52" t="n">
+        <v>30</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>287</v>
+      </c>
+      <c r="D53" t="n">
+        <v>219</v>
+      </c>
+      <c r="E53" t="n">
+        <v>39</v>
+      </c>
+      <c r="F53" t="n">
+        <v>29</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>104</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>70</v>
+      </c>
+      <c r="F54" t="n">
+        <v>30</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>104</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>70</v>
+      </c>
+      <c r="F55" t="n">
+        <v>30</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C56" t="n">
         <v>163</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D56" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E56" t="n">
         <v>160</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F56" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>104</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70</v>
+      </c>
+      <c r="F57" t="n">
+        <v>30</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>163</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>160</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>163</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>160</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>163</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>160</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -835,7 +835,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -874,13 +874,13 @@
         <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -902,13 +902,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -986,13 +986,13 @@
         <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
         <v>27</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1014,13 +1014,13 @@
         <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="n">
         <v>27</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1042,10 +1042,10 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
         <v>40</v>
@@ -1059,27 +1059,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1087,27 +1087,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D11" t="n">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1126,13 +1126,13 @@
         <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1199,27 +1199,27 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1227,27 +1227,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1339,24 +1339,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1367,24 +1367,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1451,24 +1451,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1479,24 +1479,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1563,24 +1563,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1591,24 +1591,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1630,13 +1630,13 @@
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1658,13 +1658,13 @@
         <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1675,24 +1675,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1703,24 +1703,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>244</v>
       </c>
       <c r="D33" t="n">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1742,13 +1742,13 @@
         <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1770,13 +1770,13 @@
         <v>244</v>
       </c>
       <c r="D35" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1787,11 +1787,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1815,11 +1815,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1843,7 +1843,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1882,13 +1882,13 @@
         <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1899,24 +1899,24 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>244</v>
       </c>
       <c r="D40" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1927,11 +1927,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1955,7 +1955,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2011,27 +2011,27 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2039,27 +2039,27 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2078,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>10</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
         <v>10</v>
@@ -2123,27 +2123,27 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D48" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2151,27 +2151,27 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2235,63 +2235,63 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E52" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="D53" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2347,63 +2347,63 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>70</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>160</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45855</v>
+        <v>45857</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -481,6 +481,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,7 +811,7 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -835,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -846,13 +871,13 @@
         <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -863,7 +888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -874,13 +899,13 @@
         <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -891,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -902,13 +927,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -919,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -930,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -975,7 +1000,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -986,13 +1011,13 @@
         <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
         <v>27</v>
@@ -1003,7 +1028,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1014,13 +1039,13 @@
         <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
         <v>27</v>
@@ -1031,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1042,13 +1067,13 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -1059,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1070,10 +1095,10 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F10" t="n">
         <v>40</v>
@@ -1087,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>152</v>
+        <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1115,7 +1140,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1143,7 +1168,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1171,7 +1196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1199,7 +1224,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1227,27 +1252,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1255,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="E17" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1283,7 +1308,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1311,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1339,7 +1364,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1367,24 +1392,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1395,24 +1420,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D22" t="n">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1423,7 +1448,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1451,7 +1476,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1479,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1507,24 +1532,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1535,7 +1560,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1563,7 +1588,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1591,24 +1616,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1619,24 +1644,24 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1647,7 +1672,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1675,7 +1700,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1703,24 +1728,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>244</v>
       </c>
       <c r="D33" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1731,24 +1756,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1759,7 +1784,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1770,13 +1795,13 @@
         <v>244</v>
       </c>
       <c r="D35" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1787,7 +1812,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1815,24 +1840,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>244</v>
       </c>
       <c r="D37" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1843,11 +1868,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1871,7 +1896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1899,7 +1924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1910,13 +1935,13 @@
         <v>244</v>
       </c>
       <c r="D40" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1927,11 +1952,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1955,24 +1980,24 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>244</v>
       </c>
       <c r="D42" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1983,7 +2008,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2011,7 +2036,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2039,27 +2064,27 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2067,27 +2092,27 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2095,7 +2120,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2106,13 +2131,13 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
         <v>10</v>
@@ -2123,7 +2148,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2134,13 +2159,13 @@
         <v>37</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
@@ -2151,27 +2176,27 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="E49" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2179,27 +2204,27 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D50" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2207,7 +2232,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2235,7 +2260,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2263,63 +2288,63 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E53" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F53" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E54" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F54" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2347,7 +2372,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2375,80 +2400,80 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70</v>
+      </c>
+      <c r="F57" t="n">
+        <v>30</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>160</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45859</v>
+        <v>45857</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>70</v>
+      </c>
+      <c r="F58" t="n">
+        <v>30</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>160</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2459,7 +2484,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2482,6 +2507,90 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>163</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>160</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>163</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>160</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>163</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>160</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,24 +860,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="D2" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -899,13 +899,13 @@
         <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45857</v>
+        <v>45861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1140,27 +1140,27 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1224,27 +1224,27 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45858</v>
+        <v>45861</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1252,27 +1252,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45857</v>
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>372</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45860</v>
+        <v>45858</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1336,24 +1336,24 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>372</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,24 +1392,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1420,24 +1420,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45861</v>
+        <v>45858</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="E22" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1448,24 +1448,24 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D23" t="n">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1476,24 +1476,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,24 +1532,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1564,20 +1564,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>244</v>
       </c>
       <c r="D27" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1592,20 +1592,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1620,20 +1620,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1644,24 +1644,24 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45857</v>
+        <v>45860</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1672,24 +1672,24 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,24 +1728,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>244</v>
       </c>
       <c r="D33" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1756,24 +1756,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1784,11 +1784,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45860</v>
+        <v>45858</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1812,11 +1812,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1840,24 +1840,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>244</v>
       </c>
       <c r="D37" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1868,11 +1868,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1900,23 +1900,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1928,23 +1928,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1980,24 +1980,24 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45857</v>
+        <v>45860</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D42" t="n">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F42" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2008,24 +2008,24 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D43" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F43" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2036,24 +2036,24 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D44" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F44" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2064,111 +2064,111 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F45" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45857</v>
+        <v>45859</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D46" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F46" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45860</v>
+        <v>45858</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D47" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
+        <v>70</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>10</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2176,27 +2176,27 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="D49" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2204,27 +2204,27 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="D50" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2236,361 +2236,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="D51" t="n">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>287</v>
-      </c>
-      <c r="D52" t="n">
-        <v>219</v>
-      </c>
-      <c r="E52" t="n">
-        <v>39</v>
-      </c>
-      <c r="F52" t="n">
-        <v>29</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45858</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>287</v>
-      </c>
-      <c r="D53" t="n">
-        <v>219</v>
-      </c>
-      <c r="E53" t="n">
-        <v>39</v>
-      </c>
-      <c r="F53" t="n">
-        <v>29</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45857</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>287</v>
-      </c>
-      <c r="D54" t="n">
-        <v>219</v>
-      </c>
-      <c r="E54" t="n">
-        <v>39</v>
-      </c>
-      <c r="F54" t="n">
-        <v>29</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>104</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>70</v>
-      </c>
-      <c r="F55" t="n">
-        <v>30</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>104</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" t="n">
-        <v>70</v>
-      </c>
-      <c r="F56" t="n">
-        <v>30</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45858</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>104</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>70</v>
-      </c>
-      <c r="F57" t="n">
-        <v>30</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45857</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>104</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>70</v>
-      </c>
-      <c r="F58" t="n">
-        <v>30</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>372</v>
-      </c>
-      <c r="D59" t="n">
-        <v>115</v>
-      </c>
-      <c r="E59" t="n">
-        <v>85</v>
-      </c>
-      <c r="F59" t="n">
-        <v>172</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>163</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>160</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>45858</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>163</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>160</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>45857</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>163</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>160</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>163</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>160</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,24 +860,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E2" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -888,27 +888,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1011,13 +1011,13 @@
         <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G7" t="n">
         <v>27</v>
@@ -1028,27 +1028,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1067,13 +1067,13 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1140,27 +1140,27 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1168,27 +1168,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1196,18 +1196,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45858</v>
+        <v>45861</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1224,27 +1224,27 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1252,27 +1252,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,21 +1280,21 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -1308,24 +1308,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1340,23 +1340,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="D19" t="n">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="E19" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1368,20 +1368,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1420,24 +1420,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>244</v>
       </c>
       <c r="D22" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1452,20 +1452,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="E23" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1508,20 +1508,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,24 +1532,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1560,24 +1560,24 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D27" t="n">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1588,24 +1588,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,24 +1616,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1644,11 +1644,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1672,24 +1672,24 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,11 +1728,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1756,11 +1756,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1784,11 +1784,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D36" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F36" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,11 +1840,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1868,11 +1868,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1900,23 +1900,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1928,23 +1928,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D40" t="n">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1963,13 +1963,13 @@
         <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
         <v>10</v>
@@ -1980,27 +1980,27 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="E42" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2120,52 +2120,52 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E47" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D48" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="F48" t="n">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2199,62 +2199,6 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45858</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>163</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>160</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>163</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>160</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -871,13 +871,13 @@
         <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -888,27 +888,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
         <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,27 +972,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1000,27 +1000,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,27 +1028,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,27 +1056,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D9" t="n">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>265</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1140,27 +1140,27 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
+        <v>160</v>
+      </c>
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1168,27 +1168,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="D13" t="n">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1252,27 +1252,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,24 +1308,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>244</v>
       </c>
       <c r="D18" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1336,27 +1336,27 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,24 +1392,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45865</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1420,24 +1420,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>244</v>
       </c>
       <c r="D22" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1448,24 +1448,24 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="D23" t="n">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E23" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1476,24 +1476,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45865</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,24 +1532,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1560,24 +1560,24 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="E27" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1588,24 +1588,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,24 +1616,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45859</v>
+        <v>45865</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1644,11 +1644,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1672,7 +1672,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
         <v>244</v>
       </c>
       <c r="D31" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,11 +1728,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1756,11 +1756,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1784,7 +1784,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1816,20 +1816,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45860</v>
+        <v>45865</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1851,13 +1851,13 @@
         <v>244</v>
       </c>
       <c r="D37" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1868,11 +1868,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45859</v>
+        <v>45864</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1896,24 +1896,24 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1924,24 +1924,24 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D40" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F40" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1952,27 +1952,27 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45860</v>
+        <v>45865</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D41" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45859</v>
+        <v>45864</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2008,24 +2008,24 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="D43" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E43" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2036,27 +2036,27 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45859</v>
+        <v>45865</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E44" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2064,83 +2064,83 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E45" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45860</v>
+        <v>45865</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="D47" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E47" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2148,57 +2148,281 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45859</v>
+        <v>45864</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>70</v>
+      </c>
+      <c r="F48" t="n">
+        <v>30</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>160</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>287</v>
+      </c>
+      <c r="D49" t="n">
+        <v>219</v>
+      </c>
+      <c r="E49" t="n">
+        <v>39</v>
+      </c>
+      <c r="F49" t="n">
+        <v>29</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>104</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>70</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>372</v>
+      </c>
+      <c r="D51" t="n">
+        <v>150</v>
+      </c>
+      <c r="E51" t="n">
+        <v>65</v>
+      </c>
+      <c r="F51" t="n">
+        <v>157</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>104</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>70</v>
+      </c>
+      <c r="F52" t="n">
+        <v>31</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>372</v>
+      </c>
+      <c r="D53" t="n">
+        <v>165</v>
+      </c>
+      <c r="E53" t="n">
+        <v>49</v>
+      </c>
+      <c r="F53" t="n">
+        <v>158</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C54" t="n">
         <v>163</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D54" t="n">
         <v>1</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E54" t="n">
         <v>160</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F54" t="n">
         <v>2</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>372</v>
+      </c>
+      <c r="D55" t="n">
+        <v>124</v>
+      </c>
+      <c r="E55" t="n">
+        <v>89</v>
+      </c>
+      <c r="F55" t="n">
+        <v>159</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>163</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>160</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>163</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>160</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
         <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,27 +972,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1000,27 +1000,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,27 +1028,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D8" t="n">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1056,27 +1056,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>152</v>
+        <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1084,27 +1084,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1140,27 +1140,27 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>160</v>
-      </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1168,18 +1168,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1196,18 +1196,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1224,18 +1224,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1252,27 +1252,27 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="D16" t="n">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,24 +1280,24 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45865</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>244</v>
       </c>
       <c r="D20" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,24 +1392,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45865</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1476,24 +1476,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45865</v>
+        <v>45863</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1588,24 +1588,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,24 +1616,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45865</v>
+        <v>45863</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>244</v>
       </c>
       <c r="D29" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1700,11 +1700,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1728,24 +1728,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45865</v>
+        <v>45863</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>244</v>
       </c>
       <c r="D33" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1767,13 +1767,13 @@
         <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1812,11 +1812,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1840,24 +1840,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45865</v>
+        <v>45863</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>244</v>
       </c>
       <c r="D37" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1924,24 +1924,24 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E40" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1952,24 +1952,24 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45865</v>
+        <v>45863</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>244</v>
       </c>
       <c r="D41" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1991,13 +1991,13 @@
         <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
         <v>10</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45865</v>
+        <v>45864</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>10</v>
@@ -2064,27 +2064,27 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45864</v>
+        <v>45863</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="D45" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2092,27 +2092,27 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2124,23 +2124,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2152,26 +2152,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E48" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2180,23 +2180,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2232,27 +2232,27 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="D51" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="E51" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         <v>104</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
         <v>70</v>
       </c>
       <c r="F52" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2288,24 +2288,24 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45865</v>
+        <v>45863</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="D53" t="n">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="E53" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F53" t="n">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2316,24 +2316,24 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="E54" t="n">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2344,52 +2344,52 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="D55" t="n">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F55" t="n">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45865</v>
+        <v>45864</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E56" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2404,25 +2404,193 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>104</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70</v>
+      </c>
+      <c r="F57" t="n">
+        <v>31</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C58" t="n">
         <v>163</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D58" t="n">
         <v>1</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E58" t="n">
         <v>160</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F58" t="n">
         <v>2</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>372</v>
+      </c>
+      <c r="D59" t="n">
+        <v>165</v>
+      </c>
+      <c r="E59" t="n">
+        <v>49</v>
+      </c>
+      <c r="F59" t="n">
+        <v>158</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>163</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>160</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>372</v>
+      </c>
+      <c r="D61" t="n">
+        <v>124</v>
+      </c>
+      <c r="E61" t="n">
+        <v>89</v>
+      </c>
+      <c r="F61" t="n">
+        <v>159</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>163</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>160</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>163</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>160</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>
